--- a/programas.xlsx
+++ b/programas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uredu-my.sharepoint.com/personal/luisfe_moreno_urosario_edu_co/Documents/calendario academico 2020 nuevo diseño/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B473892C-5A2C-40E3-95E7-760E73411A2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B473892C-5A2C-40E3-95E7-760E73411A2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{554098B7-2BC2-489E-B20E-5AB844F69454}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{73AB0902-A688-481F-BE1C-B5C376663794}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="174">
   <si>
-    <t>snies</t>
-  </si>
-  <si>
     <t>programa</t>
   </si>
   <si>
@@ -556,6 +553,9 @@
   </si>
   <si>
     <t>Terapia  Ocupacional</t>
+  </si>
+  <si>
+    <t>pro</t>
   </si>
 </sst>
 </file>
@@ -962,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EACBC2B-383A-4AD3-9895-C826529D8501}">
   <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D185"/>
     </sheetView>
   </sheetViews>
@@ -976,16 +976,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,13 +993,13 @@
         <v>105184</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1007,13 +1007,13 @@
         <v>90331</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1021,13 +1021,13 @@
         <v>53210</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,13 +1035,13 @@
         <v>53209</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1049,13 +1049,13 @@
         <v>103093</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,13 +1063,13 @@
         <v>108360</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1077,13 +1077,13 @@
         <v>101783</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,13 +1091,13 @@
         <v>91092</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1105,13 +1105,13 @@
         <v>109163</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,13 +1119,13 @@
         <v>102311</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,13 +1133,13 @@
         <v>1323</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,13 +1147,13 @@
         <v>52335</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1161,13 +1161,13 @@
         <v>109153</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1175,13 +1175,13 @@
         <v>91079</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1189,13 +1189,13 @@
         <v>106459</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1203,13 +1203,13 @@
         <v>4317</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1217,13 +1217,13 @@
         <v>102217</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1231,13 +1231,13 @@
         <v>15760</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1245,13 +1245,13 @@
         <v>16027</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,13 +1259,13 @@
         <v>52336</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1273,13 +1273,13 @@
         <v>17803</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1287,13 +1287,13 @@
         <v>53085</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,13 +1301,13 @@
         <v>103702</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,13 +1315,13 @@
         <v>103701</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1329,13 +1329,13 @@
         <v>107515</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1343,13 +1343,13 @@
         <v>103703</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1357,13 +1357,13 @@
         <v>106634</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1371,13 +1371,13 @@
         <v>10212</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1385,13 +1385,13 @@
         <v>1324</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1399,13 +1399,13 @@
         <v>106798</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1413,13 +1413,13 @@
         <v>109164</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,13 +1427,13 @@
         <v>101714</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1441,13 +1441,13 @@
         <v>108259</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1455,13 +1455,13 @@
         <v>17800</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1469,13 +1469,13 @@
         <v>53082</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1483,13 +1483,13 @@
         <v>107411</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1497,13 +1497,13 @@
         <v>52337</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1511,13 +1511,13 @@
         <v>4305</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1525,13 +1525,13 @@
         <v>17796</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1539,13 +1539,13 @@
         <v>108361</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1553,13 +1553,13 @@
         <v>1325</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1567,13 +1567,13 @@
         <v>53084</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1581,13 +1581,13 @@
         <v>108189</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1595,13 +1595,13 @@
         <v>1326</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1609,13 +1609,13 @@
         <v>103039</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1623,13 +1623,13 @@
         <v>106799</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1637,13 +1637,13 @@
         <v>53736</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1651,13 +1651,13 @@
         <v>109230</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1665,13 +1665,13 @@
         <v>12330</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1679,13 +1679,13 @@
         <v>1332</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1693,13 +1693,13 @@
         <v>52074</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1707,13 +1707,13 @@
         <v>1328</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1721,13 +1721,13 @@
         <v>4744</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1735,13 +1735,13 @@
         <v>54116</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1749,13 +1749,13 @@
         <v>101638</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1763,13 +1763,13 @@
         <v>101897</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1777,13 +1777,13 @@
         <v>1330</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1791,13 +1791,13 @@
         <v>109171</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1805,13 +1805,13 @@
         <v>13705</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1819,13 +1819,13 @@
         <v>52896</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1833,13 +1833,13 @@
         <v>54564</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1847,13 +1847,13 @@
         <v>9812</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,13 +1861,13 @@
         <v>106532</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1875,13 +1875,13 @@
         <v>104219</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1889,13 +1889,13 @@
         <v>107045</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1903,13 +1903,13 @@
         <v>107323</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1917,13 +1917,13 @@
         <v>107472</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1931,13 +1931,13 @@
         <v>17810</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1945,13 +1945,13 @@
         <v>101721</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1959,13 +1959,13 @@
         <v>106222</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1973,13 +1973,13 @@
         <v>11078</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1987,13 +1987,13 @@
         <v>104661</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2001,13 +2001,13 @@
         <v>8123</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2015,13 +2015,13 @@
         <v>109165</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2029,13 +2029,13 @@
         <v>104760</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2043,13 +2043,13 @@
         <v>3038</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2057,13 +2057,13 @@
         <v>106223</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2071,13 +2071,13 @@
         <v>106224</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2085,13 +2085,13 @@
         <v>106225</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2099,13 +2099,13 @@
         <v>108235</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2113,13 +2113,13 @@
         <v>13058</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2127,13 +2127,13 @@
         <v>106554</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2141,13 +2141,13 @@
         <v>52171</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2155,13 +2155,13 @@
         <v>11108</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2169,13 +2169,13 @@
         <v>54304</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2183,13 +2183,13 @@
         <v>4930</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2197,13 +2197,13 @@
         <v>1301</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2211,13 +2211,13 @@
         <v>1302</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2225,13 +2225,13 @@
         <v>6570</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2239,13 +2239,13 @@
         <v>6569</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2253,13 +2253,13 @@
         <v>2709</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2267,13 +2267,13 @@
         <v>104918</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2281,13 +2281,13 @@
         <v>1303</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2295,13 +2295,13 @@
         <v>54054</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2309,13 +2309,13 @@
         <v>104064</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2323,13 +2323,13 @@
         <v>52274</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2337,13 +2337,13 @@
         <v>11109</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2351,13 +2351,13 @@
         <v>1319</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2365,13 +2365,13 @@
         <v>102817</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2379,13 +2379,13 @@
         <v>1305</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2393,13 +2393,13 @@
         <v>54056</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2407,13 +2407,13 @@
         <v>104922</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2421,13 +2421,13 @@
         <v>54055</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2435,13 +2435,13 @@
         <v>16100</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2449,13 +2449,13 @@
         <v>102266</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2463,13 +2463,13 @@
         <v>1307</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2477,13 +2477,13 @@
         <v>16130</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2491,13 +2491,13 @@
         <v>1321</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2505,13 +2505,13 @@
         <v>1308</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2519,13 +2519,13 @@
         <v>16129</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2533,13 +2533,13 @@
         <v>1309</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2547,13 +2547,13 @@
         <v>11048</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2561,13 +2561,13 @@
         <v>1310</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2575,13 +2575,13 @@
         <v>1311</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2589,13 +2589,13 @@
         <v>1312</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2603,13 +2603,13 @@
         <v>1313</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2617,13 +2617,13 @@
         <v>1315</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,13 +2631,13 @@
         <v>1316</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2645,13 +2645,13 @@
         <v>1317</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,13 +2659,13 @@
         <v>54964</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2673,13 +2673,13 @@
         <v>4893</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2687,13 +2687,13 @@
         <v>1318</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2701,13 +2701,13 @@
         <v>104866</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2715,13 +2715,13 @@
         <v>102006</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2729,13 +2729,13 @@
         <v>105712</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2743,13 +2743,13 @@
         <v>53374</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2757,13 +2757,13 @@
         <v>105963</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2771,13 +2771,13 @@
         <v>108260</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D129" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2785,13 +2785,13 @@
         <v>109390</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2799,13 +2799,13 @@
         <v>90708</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2813,13 +2813,13 @@
         <v>4553</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2827,13 +2827,13 @@
         <v>107274</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2841,13 +2841,13 @@
         <v>108370</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2855,13 +2855,13 @@
         <v>106796</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2869,13 +2869,13 @@
         <v>109524</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2883,13 +2883,13 @@
         <v>90802</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2897,13 +2897,13 @@
         <v>10639</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2911,13 +2911,13 @@
         <v>103886</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2925,13 +2925,13 @@
         <v>109231</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2939,13 +2939,13 @@
         <v>105711</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2953,13 +2953,13 @@
         <v>53737</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2967,13 +2967,13 @@
         <v>90665</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2981,13 +2981,13 @@
         <v>19947</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,13 +2995,13 @@
         <v>107273</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3009,13 +3009,13 @@
         <v>101875</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3023,13 +3023,13 @@
         <v>106595</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3037,13 +3037,13 @@
         <v>105753</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3051,13 +3051,13 @@
         <v>90760</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3065,13 +3065,13 @@
         <v>104867</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3079,13 +3079,13 @@
         <v>105078</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3093,13 +3093,13 @@
         <v>105492</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3107,13 +3107,13 @@
         <v>1299</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3121,13 +3121,13 @@
         <v>10574</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3135,13 +3135,13 @@
         <v>52072</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3149,13 +3149,13 @@
         <v>51786</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3163,13 +3163,13 @@
         <v>109404</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C157" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="D157" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3177,13 +3177,13 @@
         <v>109352</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3191,13 +3191,13 @@
         <v>54017</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3205,13 +3205,13 @@
         <v>102921</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,13 +3219,13 @@
         <v>4368</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3233,13 +3233,13 @@
         <v>109494</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,13 +3247,13 @@
         <v>109406</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3261,13 +3261,13 @@
         <v>1298</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3275,13 +3275,13 @@
         <v>1300</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3289,13 +3289,13 @@
         <v>10547</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3303,13 +3303,13 @@
         <v>1293</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3317,13 +3317,13 @@
         <v>1294</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3331,13 +3331,13 @@
         <v>51641</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,13 +3345,13 @@
         <v>51887</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3359,41 +3359,41 @@
         <v>91049</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="C172" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="D172" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="C173" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3401,13 +3401,13 @@
         <v>1297</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3415,13 +3415,13 @@
         <v>106305</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3429,13 +3429,13 @@
         <v>106389</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3443,13 +3443,13 @@
         <v>108262</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3457,13 +3457,13 @@
         <v>105653</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3471,13 +3471,13 @@
         <v>1295</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3485,13 +3485,13 @@
         <v>15613</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3499,13 +3499,13 @@
         <v>16010</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3513,13 +3513,13 @@
         <v>4753</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3527,13 +3527,13 @@
         <v>4239</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3541,13 +3541,13 @@
         <v>108006</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3555,13 +3555,13 @@
         <v>1296</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/programas.xlsx
+++ b/programas.xlsx
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EACBC2B-383A-4AD3-9895-C826529D8501}">
   <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D185"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/programas.xlsx
+++ b/programas.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uredu-my.sharepoint.com/personal/luisfe_moreno_urosario_edu_co/Documents/calendario academico 2020 nuevo diseño/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B473892C-5A2C-40E3-95E7-760E73411A2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{554098B7-2BC2-489E-B20E-5AB844F69454}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{B473892C-5A2C-40E3-95E7-760E73411A2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9EC66187-55DC-4F8C-A86C-5A172358FF68}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{73AB0902-A688-481F-BE1C-B5C376663794}"/>
   </bookViews>
   <sheets>
     <sheet name="programas" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">programas!$A$1:$D$185</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -962,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EACBC2B-383A-4AD3-9895-C826529D8501}">
   <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
